--- a/src/database/faza1/faza1NePdfWord/Projekti.xlsx
+++ b/src/database/faza1/faza1NePdfWord/Projekti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22CC3F5-6BC8-4E60-9194-602E8CB4B12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D738302-C059-4C6C-A747-EECE403F5B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7838670A-7C9D-4A9F-98C2-ACE7A5A357BD}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="168">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -503,6 +503,39 @@
   </si>
   <si>
     <t>Mire</t>
+  </si>
+  <si>
+    <t>Emri I Prindit</t>
+  </si>
+  <si>
+    <t>Halil</t>
+  </si>
+  <si>
+    <t>Ismet</t>
+  </si>
+  <si>
+    <t>Jeton</t>
+  </si>
+  <si>
+    <t>Bekë</t>
+  </si>
+  <si>
+    <t>Besnik</t>
+  </si>
+  <si>
+    <t>Syl</t>
+  </si>
+  <si>
+    <t>Arsim</t>
+  </si>
+  <si>
+    <t>Arben</t>
+  </si>
+  <si>
+    <t>Sokol</t>
+  </si>
+  <si>
+    <t>Arton</t>
   </si>
 </sst>
 </file>
@@ -728,17 +761,23 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -749,26 +788,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1089,7 +1122,7 @@
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1100,44 +1133,49 @@
     <col min="5" max="5" width="20.88671875" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="11.21875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1159,8 +1197,11 @@
       <c r="G3" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1182,8 +1223,11 @@
       <c r="G4" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1205,8 +1249,11 @@
       <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1228,8 +1275,11 @@
       <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1251,8 +1301,11 @@
       <c r="G7" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1274,8 +1327,11 @@
       <c r="G8" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1297,8 +1353,11 @@
       <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1320,8 +1379,11 @@
       <c r="G10" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1343,8 +1405,11 @@
       <c r="G11" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1366,19 +1431,22 @@
       <c r="G12" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="H12" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1395,7 +1463,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1412,7 +1480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1566,13 +1634,13 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
       <c r="G25" s="21" t="s">
         <v>4</v>
       </c>
@@ -1603,10 +1671,10 @@
       <c r="H26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="22"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1631,10 +1699,10 @@
       <c r="H27" s="1">
         <v>452649</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="20">
         <v>383455696</v>
       </c>
-      <c r="J27" s="22"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1659,10 +1727,10 @@
       <c r="H28" s="1">
         <v>299637</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="20">
         <v>383458256</v>
       </c>
-      <c r="J28" s="22"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1687,10 +1755,10 @@
       <c r="H29" s="1">
         <v>5288569</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="20">
         <v>383458297</v>
       </c>
-      <c r="J29" s="22"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -1715,23 +1783,23 @@
       <c r="H30" s="1">
         <v>9845447</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="20">
         <v>383488296</v>
       </c>
-      <c r="J30" s="22"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -2020,10 +2088,10 @@
       <c r="G49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="I49" s="22"/>
+      <c r="I49" s="20"/>
     </row>
     <row r="50" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
@@ -2035,7 +2103,7 @@
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="20" t="s">
         <v>98</v>
       </c>
       <c r="F50" s="1">
@@ -2044,10 +2112,10 @@
       <c r="G50" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="I50" s="22"/>
+      <c r="I50" s="20"/>
     </row>
     <row r="51" spans="1:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -2059,17 +2127,17 @@
       <c r="C51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="22"/>
+      <c r="D51" s="20"/>
       <c r="F51" s="1">
         <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H51" s="22" t="s">
+      <c r="H51" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="I51" s="22"/>
+      <c r="I51" s="20"/>
     </row>
     <row r="52" spans="1:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -2081,17 +2149,17 @@
       <c r="C52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="22"/>
+      <c r="D52" s="20"/>
       <c r="F52" s="1">
         <v>3</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="22" t="s">
+      <c r="H52" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="I52" s="22"/>
+      <c r="I52" s="20"/>
     </row>
     <row r="53" spans="1:9" ht="15.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2105,16 +2173,16 @@
     <row r="62" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:9" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:9" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="23"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -2181,7 +2249,7 @@
       <c r="D67" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E67" s="24" t="s">
+      <c r="E67" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -2207,7 +2275,7 @@
       <c r="D68" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E68" s="13" t="s">
         <v>123</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -2233,7 +2301,7 @@
       <c r="D69" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="E69" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -2259,7 +2327,7 @@
       <c r="D70" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E70" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -2285,7 +2353,7 @@
       <c r="D71" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="24" t="s">
+      <c r="E71" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -2311,7 +2379,7 @@
       <c r="D72" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E72" s="24" t="s">
+      <c r="E72" s="13" t="s">
         <v>123</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -2337,7 +2405,7 @@
       <c r="D73" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E73" s="24" t="s">
+      <c r="E73" s="13" t="s">
         <v>123</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -2351,47 +2419,47 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F74" s="20"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="16" t="s">
+      <c r="A77" s="10"/>
+      <c r="B77" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="19"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:9" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F78" s="12" t="s">
+      <c r="F78" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G78" s="12" t="s">
+      <c r="G78" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H78" s="12" t="s">
+      <c r="H78" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="I78" s="12" t="s">
+      <c r="I78" s="9" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2513,32 +2581,32 @@
     </row>
     <row r="83" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="15"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="19"/>
     </row>
     <row r="85" spans="1:9" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="F85" s="9" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2625,6 +2693,16 @@
     <row r="90" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A35:G35"/>
     <mergeCell ref="B77:H77"/>
     <mergeCell ref="A84:F84"/>
     <mergeCell ref="D50:D52"/>
@@ -2634,17 +2712,7 @@
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{2AE52153-9436-4301-8A9A-6651312914CE}"/>
